--- a/story/主线剧情/main/level_main_07-15_end.xlsx
+++ b/story/主线剧情/main/level_main_07-15_end.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="617">
   <si>
     <t>zh_CN</t>
   </si>
@@ -22,6 +22,9 @@
     <t>ja_JP</t>
   </si>
   <si>
+    <t>en_US</t>
+  </si>
+  <si>
     <t>ko_KR</t>
   </si>
   <si>
@@ -1250,6 +1253,618 @@
   </si>
   <si>
     <t xml:space="preserve">[name="パトリオット"]  貴方は……ケルシー、士爵？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Runner Three, down!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  Runner Seven, destroyed!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Runner Eight, intercepted.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Raidian, execute the feint! Use your Arts to extend or hit their nervous systems directly!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Pull all the enemies!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  *Pant* *pant*... so tough. Is everyone okay?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Operator"]  No problems yet... But... it’s really intense. I’ve never seen combat on this scale before...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Operator"]  I’m due for a vacation if I make it back from this.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Right. I’ll approve it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  But first... let’s knock out this team! Then if you want a raise, a vacation, a specific assignment, I’ll grant anything!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Guerrilla Fighter"]  Incoming!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Guerrilla Fighter"]  Don’t get distracted! Back in formation!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Guerrilla Fighter"]  A major firefight by the east exit? Stay calm, push ahead slow. Don’t give them an opening!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Guerrilla Fighter"]  These don’t look like Ursus or Yen tactics. What’s going on? Who are they?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Guerrilla Fighter"]  After picking off Ursus soldiers for years, now we get ambushed?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Guerrilla Fighter"]  No actual fighting...? Cowards! You’ll pay for underestimating the guerrillas! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Guerrilla Fighter"]  Watch the altar! The protection the Captain gave us only mitigates its effects. He told us a million times not to go near it unless we have to!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Guerrilla Fighter"]  Runner, get the other teams on the horn.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Guerrilla Fighter"]  ...No response?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Guerrilla Fighter"]  Where are the mortars? And the devils?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Guerrilla Fighter"]  ......
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Guerrilla Fighter"]  Hold on. Something’s not right.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  Runner Twelve, destroyed!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rhodes Island Operator"]  The guerrilla fighters are closing ranks! Now’s our best chance to break through!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="No! It could be a trap!", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  ...Hmm..
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Roger. Rosmontis, let’s scan the area with our Arts.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  I can’t reach it. The enemy... is blocking me somehow.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Sarkaz casters. They’re the only ones who could interfere with Arts like Rosmontis’s.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Then it’s up to me...!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Raidian, how long can you keep it up?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  ...We’ll be quick.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  I... I found them. Yes. They have a lot of snipers and casters hidden in those buildings.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  They’re calm... some agitated. But they’re not fanatics. They’re... fortifying that point.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  ...Duty.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  The Doctor is right. It’s a trap.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  I’m nearby. I’m coming.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Can you do it?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  Yes. I won’t smash the whole building. I’ll just destroy the level they’re on, so they won’t bother us.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  Amiya, I can do it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Right, Rosmontis... I know you can. Definitely.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  ...Amiya, will you p’ei fu me then?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Err? What?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  I heard Blaze say there aren’t many people who can make you p’ei fu them.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  P’ei fu? Oh... does that mean “respect?” Sorry, I’m not so good with the Yen language. I’m pretty sure that’s what it means?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  I don’t know, Amiya...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  ...Doesn’t matter. Because I’ve always “p’ei fu’d” Rosmontis.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  You’re amazing, really. I couldn’t do what you do...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  I couldn’t bear that loss and loneliness.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  There’s no way I could live with it like you do, suffer through it like you do.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  You’re lying.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  ......
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  But it doesn’t matter to me. Even if you’re a liar, you’re still Amiya to me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  Someone could... p’ei fu... a person like me?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  It’s like you just said, Rosmontis. You’re Rosmontis, so I respect you. As both an elite operator and a friend.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  Keep at it, Rosmontis.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  Okay. We’ll keep at it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Guerrilla Fighter"]  Where are they? What are they waiting for?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Guerrilla Fighter"]  N-No! We can’t leave the area! We strike as soon as they show their faces! No one else falls out of contact!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Guerrilla Fighter"]  Hey, is that an enemy on top of that building over there?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Guerrilla Fighter"]  ...A cat? Just one little Feline...?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Guerrilla Fighter"]  Runner! Tell the casters! The enemy deployed a caster on the building across the way!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Guerrilla Fighter"]  We’ve gotta take her out!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Guerrilla Fighter"]  —A sword? A weapon? She’s pulling them out of the air...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Guerrilla Fighter"]  Huh? Floating weapons?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  Slice from here, to there.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  Hold it... with my hands. Cut, with the sword.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  ...Like slicing a potato.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Like slicing a potato.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Doctor! Get over here!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="The whole building... got cut in half?", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Rosmontis is destroying the guerrillas’ ambush point. Watch for falling debris!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="What the hell was that?", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Assuming you’re talking about Rosmontis’s Arts, it may be time to explain it to you, now that you’ve seen it so many times.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  It is a state of mind she shapes herself. You can think of it like Rosmontis has a gigantic, second, invisible body that cannot be acted upon.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  It is a formless extension of her sense of touch. She can grab, squeeze, lift up, and toss away.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  But these Arts lack objective manifestation, as opposed to her subjective mind.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  It can act upon us with force, but we cannot act upon it. We only know it exists with the application of special Originium Arts.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  You need not grasp it fully. This is not your area of expertise. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Rosmontis was much more destructive before we put a weapon in her hands. A lot like being crushed beneath the treads of a nomadic city. All that’s left is a crying young girl alone in the ruins.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Under no circumstances can that be allowed to happen again.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  ...Doctor, move.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  I see it. The command group is coming...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  There should be a waterway under the ruins of the park fountain.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  They hid in such an inconspicuous place.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  ...The story of the ambush on Graymane Peak, that supposedly involved seven straight days of stakeout and tricked the strongest of knights, may well have been true.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Let’s go, Dr. {@nickname}. No time to lose.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Raidian, cease fire. Find a good place to hide. I need you to focus on keeping our comms up.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Mantra-2, log all our conversations. Every last word.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  Runner Group Fourteen, successfully intercepted.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  Amiya, Dr. Kal'tsit, I’m ready.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Guerrilla Fighter"]  (Are you okay...? Talk to me! Look at me!)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Guerrilla Fighter"]  (Good, you’re with us. I’m okay. Doesn’t matter. You hide somewhere, don’t let them find you... we need you to regroup.)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Guerrilla Fighter"]  (I know. We’ll get them. You stay quiet!)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Guerrilla Fighter"]  (I’m fine. No injuries. A little stone is nothing compared to an Ursus Fortcracker.)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Guerrilla Fighter"]  (Don’t panic! I can stop it, you look for an opening!)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Guerrilla Fighter"]  You! What are you looking at?! Too scared to fight us?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Guerrilla Fighter"]  Whoever you are, you lost the guts to take us on now? Too scared of Patriot’s blood? Scared of his witchcraft?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Guerrilla Fighter"]  Thinking back to the time you fought the Sarkaz? You had them outnumbered, you could’ve won, but in the end you just ran up the casualties!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Guerrilla Fighter"]  But we’ll do you one better! You can’t break our shields, you can’t crack our armor! You’re nothing before the undying Patriot!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Guerrilla Fighter"]  The mightiest Ursus warrior... needs no spear or shield. He’ll stomp you to pieces.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Guerrilla Fighter"]  You... are nothing!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Guerrilla Fighter"]  Our fighters will regroup here soon! You can’t run. Reunion will put you through hell!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Guerrilla Fighter"]  Oppressors who enslave the Infected like us! You will be swallowed up by the Reunion movement!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Guerrilla Fighter"]  Reunion—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  ...Reunion already betrayed you, sir.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Guerrilla Fighter"]  —Little girl?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  ......
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Guerrilla Fighter"]  ...Two... Infected little girls?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Guerrilla Fighter"]  What are you doing?! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  Out of the way.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  There’s a man behind you, and I’m going to break the device behind him.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Guerrilla Fighter"]  You think I’ll show you mercy just because you look like a kid?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Guerrilla Fighter"]  Don’t underestimate Patriot’s Guard! We’re the Aegis of the Infected... I’m here to stop your attack.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Guerrilla Fighter"]  If you attack the Infected, I’ll strangle you with my own two hands!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  Then my weapons will talk for me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Guerrilla Fighter"]  You... You’re the cat from before.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Guerrilla Fighter"]  Your sword...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Runner"]  (Get out of here, guardian! Tell the others! I’ll be okay!)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Guerrilla Fighter"]  (That’s your job, not mine! You have to survive!)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Guerrilla Fighter"]  Come, try to pierce my shield! Try to break my armor!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  Amiya. I’m out of options.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  But...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  He won’t die. But he may never walk again.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="Wait—", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  Go. Stab...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  You, can’t.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]  ?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  How... you blocked my sword with your bare hands?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  Hm... My hand... numb...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  When did you get here? I never felt...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  No. Oh... I think... I thought that was a building collapsing, but that was you?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  You, no, you and your team... You’re like...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  ...a mountain.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  ......
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Rosmontis, fall back.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Rosmontis"]  But I...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  That’s an order, Rosmontis.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  An order.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Guerrilla Fighter"]  Captain...!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  You did, well. Go, regroup.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  Now, you...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  Rhodes Island.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  I don’t care, who, you are.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  You attacked, my men. You, die.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Are you sure you don’t care?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  Very, sure—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  Wait... wait.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  You...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  ...Buldrokkas'tee.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  You... how...?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  It’s been a while.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Patriot"]  You... Dame Kal'tsit?
 </t>
   </si>
   <si>
@@ -2220,13 +2835,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C156"/>
+  <dimension ref="A1:D156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2236,1710 +2851,2178 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" t="s">
+        <v>313</v>
+      </c>
+      <c r="D4" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C5" t="s">
+        <v>314</v>
+      </c>
+      <c r="D5" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" t="s">
+        <v>315</v>
+      </c>
+      <c r="D6" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" t="s">
+        <v>316</v>
+      </c>
+      <c r="D7" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D8" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>165</v>
+      </c>
+      <c r="C9" t="s">
+        <v>318</v>
+      </c>
+      <c r="D9" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" t="s">
+        <v>319</v>
+      </c>
+      <c r="D10" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11" t="s">
+        <v>320</v>
+      </c>
+      <c r="D11" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>168</v>
+      </c>
+      <c r="C12" t="s">
+        <v>321</v>
+      </c>
+      <c r="D12" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>169</v>
+      </c>
+      <c r="C13" t="s">
+        <v>322</v>
+      </c>
+      <c r="D13" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>170</v>
+      </c>
+      <c r="C14" t="s">
+        <v>323</v>
+      </c>
+      <c r="D14" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>171</v>
+      </c>
+      <c r="C15" t="s">
+        <v>324</v>
+      </c>
+      <c r="D15" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>172</v>
+      </c>
+      <c r="C16" t="s">
+        <v>325</v>
+      </c>
+      <c r="D16" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>173</v>
+      </c>
+      <c r="C17" t="s">
+        <v>326</v>
+      </c>
+      <c r="D17" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>174</v>
+      </c>
+      <c r="C18" t="s">
+        <v>327</v>
+      </c>
+      <c r="D18" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>175</v>
+      </c>
+      <c r="C19" t="s">
+        <v>328</v>
+      </c>
+      <c r="D19" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>176</v>
+      </c>
+      <c r="C20" t="s">
+        <v>329</v>
+      </c>
+      <c r="D20" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>177</v>
+      </c>
+      <c r="C21" t="s">
+        <v>330</v>
+      </c>
+      <c r="D21" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>178</v>
+      </c>
+      <c r="C22" t="s">
+        <v>331</v>
+      </c>
+      <c r="D22" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>179</v>
+      </c>
+      <c r="C23" t="s">
+        <v>332</v>
+      </c>
+      <c r="D23" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>180</v>
+      </c>
+      <c r="C24" t="s">
+        <v>333</v>
+      </c>
+      <c r="D24" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>181</v>
+      </c>
+      <c r="C25" t="s">
+        <v>334</v>
+      </c>
+      <c r="D25" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>182</v>
+      </c>
+      <c r="C26" t="s">
+        <v>335</v>
+      </c>
+      <c r="D26" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>183</v>
+      </c>
+      <c r="C27" t="s">
+        <v>336</v>
+      </c>
+      <c r="D27" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>184</v>
+      </c>
+      <c r="C28" t="s">
+        <v>337</v>
+      </c>
+      <c r="D28" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>185</v>
+      </c>
+      <c r="C29" t="s">
+        <v>338</v>
+      </c>
+      <c r="D29" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" t="s">
+        <v>186</v>
+      </c>
+      <c r="C30" t="s">
+        <v>339</v>
+      </c>
+      <c r="D30" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
+        <v>187</v>
+      </c>
+      <c r="C31" t="s">
+        <v>340</v>
+      </c>
+      <c r="D31" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" t="s">
+        <v>188</v>
+      </c>
+      <c r="C32" t="s">
+        <v>341</v>
+      </c>
+      <c r="D32" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" t="s">
+        <v>189</v>
+      </c>
+      <c r="C33" t="s">
+        <v>342</v>
+      </c>
+      <c r="D33" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" t="s">
+        <v>190</v>
+      </c>
+      <c r="C34" t="s">
+        <v>343</v>
+      </c>
+      <c r="D34" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
+        <v>191</v>
+      </c>
+      <c r="C35" t="s">
+        <v>344</v>
+      </c>
+      <c r="D35" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>192</v>
+      </c>
+      <c r="C36" t="s">
+        <v>345</v>
+      </c>
+      <c r="D36" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>193</v>
+      </c>
+      <c r="C37" t="s">
+        <v>346</v>
+      </c>
+      <c r="D37" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" t="s">
+        <v>194</v>
+      </c>
+      <c r="C38" t="s">
+        <v>347</v>
+      </c>
+      <c r="D38" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" t="s">
+        <v>195</v>
+      </c>
+      <c r="C39" t="s">
+        <v>348</v>
+      </c>
+      <c r="D39" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" t="s">
+        <v>196</v>
+      </c>
+      <c r="C40" t="s">
+        <v>349</v>
+      </c>
+      <c r="D40" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" t="s">
+        <v>197</v>
+      </c>
+      <c r="C41" t="s">
+        <v>350</v>
+      </c>
+      <c r="D41" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" t="s">
+        <v>198</v>
+      </c>
+      <c r="C42" t="s">
+        <v>351</v>
+      </c>
+      <c r="D42" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" t="s">
+        <v>199</v>
+      </c>
+      <c r="C43" t="s">
+        <v>352</v>
+      </c>
+      <c r="D43" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" t="s">
+        <v>200</v>
+      </c>
+      <c r="C44" t="s">
+        <v>353</v>
+      </c>
+      <c r="D44" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" t="s">
+        <v>201</v>
+      </c>
+      <c r="C45" t="s">
+        <v>354</v>
+      </c>
+      <c r="D45" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" t="s">
+        <v>202</v>
+      </c>
+      <c r="C46" t="s">
+        <v>355</v>
+      </c>
+      <c r="D46" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" t="s">
+        <v>203</v>
+      </c>
+      <c r="C47" t="s">
+        <v>356</v>
+      </c>
+      <c r="D47" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" t="s">
+        <v>204</v>
+      </c>
+      <c r="C48" t="s">
+        <v>357</v>
+      </c>
+      <c r="D48" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" t="s">
+        <v>205</v>
+      </c>
+      <c r="C49" t="s">
+        <v>358</v>
+      </c>
+      <c r="D49" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" t="s">
+        <v>206</v>
+      </c>
+      <c r="C50" t="s">
+        <v>359</v>
+      </c>
+      <c r="D50" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" t="s">
+        <v>207</v>
+      </c>
+      <c r="C51" t="s">
+        <v>360</v>
+      </c>
+      <c r="D51" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" t="s">
+        <v>208</v>
+      </c>
+      <c r="C52" t="s">
+        <v>361</v>
+      </c>
+      <c r="D52" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" t="s">
+        <v>209</v>
+      </c>
+      <c r="C53" t="s">
+        <v>362</v>
+      </c>
+      <c r="D53" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" t="s">
+        <v>210</v>
+      </c>
+      <c r="C54" t="s">
+        <v>363</v>
+      </c>
+      <c r="D54" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" t="s">
+        <v>211</v>
+      </c>
+      <c r="C55" t="s">
+        <v>364</v>
+      </c>
+      <c r="D55" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" t="s">
+        <v>212</v>
+      </c>
+      <c r="C56" t="s">
+        <v>365</v>
+      </c>
+      <c r="D56" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" t="s">
+        <v>213</v>
+      </c>
+      <c r="C57" t="s">
+        <v>366</v>
+      </c>
+      <c r="D57" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" t="s">
+        <v>214</v>
+      </c>
+      <c r="C58" t="s">
+        <v>367</v>
+      </c>
+      <c r="D58" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" t="s">
+        <v>215</v>
+      </c>
+      <c r="C59" t="s">
+        <v>368</v>
+      </c>
+      <c r="D59" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60" t="s">
+        <v>216</v>
+      </c>
+      <c r="C60" t="s">
+        <v>369</v>
+      </c>
+      <c r="D60" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61" t="s">
+        <v>217</v>
+      </c>
+      <c r="C61" t="s">
+        <v>370</v>
+      </c>
+      <c r="D61" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>64</v>
+      </c>
+      <c r="B62" t="s">
+        <v>218</v>
+      </c>
+      <c r="C62" t="s">
+        <v>371</v>
+      </c>
+      <c r="D62" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" t="s">
+        <v>219</v>
+      </c>
+      <c r="C63" t="s">
+        <v>372</v>
+      </c>
+      <c r="D63" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64" t="s">
+        <v>220</v>
+      </c>
+      <c r="C64" t="s">
+        <v>373</v>
+      </c>
+      <c r="D64" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65" t="s">
+        <v>221</v>
+      </c>
+      <c r="C65" t="s">
+        <v>374</v>
+      </c>
+      <c r="D65" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66" t="s">
+        <v>222</v>
+      </c>
+      <c r="C66" t="s">
+        <v>375</v>
+      </c>
+      <c r="D66" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67" t="s">
+        <v>223</v>
+      </c>
+      <c r="C67" t="s">
+        <v>376</v>
+      </c>
+      <c r="D67" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68" t="s">
+        <v>224</v>
+      </c>
+      <c r="C68" t="s">
+        <v>377</v>
+      </c>
+      <c r="D68" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69" t="s">
+        <v>225</v>
+      </c>
+      <c r="C69" t="s">
+        <v>378</v>
+      </c>
+      <c r="D69" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70" t="s">
+        <v>226</v>
+      </c>
+      <c r="C70" t="s">
+        <v>379</v>
+      </c>
+      <c r="D70" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71" t="s">
+        <v>227</v>
+      </c>
+      <c r="C71" t="s">
+        <v>380</v>
+      </c>
+      <c r="D71" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72" t="s">
+        <v>228</v>
+      </c>
+      <c r="C72" t="s">
+        <v>381</v>
+      </c>
+      <c r="D72" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73" t="s">
+        <v>229</v>
+      </c>
+      <c r="C73" t="s">
+        <v>382</v>
+      </c>
+      <c r="D73" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>76</v>
+      </c>
+      <c r="B74" t="s">
+        <v>230</v>
+      </c>
+      <c r="C74" t="s">
+        <v>383</v>
+      </c>
+      <c r="D74" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75" t="s">
+        <v>231</v>
+      </c>
+      <c r="C75" t="s">
+        <v>384</v>
+      </c>
+      <c r="D75" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>78</v>
+      </c>
+      <c r="B76" t="s">
+        <v>232</v>
+      </c>
+      <c r="C76" t="s">
+        <v>385</v>
+      </c>
+      <c r="D76" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>79</v>
+      </c>
+      <c r="B77" t="s">
+        <v>233</v>
+      </c>
+      <c r="C77" t="s">
+        <v>386</v>
+      </c>
+      <c r="D77" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>80</v>
+      </c>
+      <c r="B78" t="s">
+        <v>234</v>
+      </c>
+      <c r="C78" t="s">
+        <v>387</v>
+      </c>
+      <c r="D78" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>81</v>
+      </c>
+      <c r="B79" t="s">
+        <v>235</v>
+      </c>
+      <c r="C79" t="s">
+        <v>388</v>
+      </c>
+      <c r="D79" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>82</v>
+      </c>
+      <c r="B80" t="s">
+        <v>236</v>
+      </c>
+      <c r="C80" t="s">
+        <v>389</v>
+      </c>
+      <c r="D80" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>83</v>
+      </c>
+      <c r="B81" t="s">
+        <v>237</v>
+      </c>
+      <c r="C81" t="s">
+        <v>390</v>
+      </c>
+      <c r="D81" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>84</v>
+      </c>
+      <c r="B82" t="s">
+        <v>238</v>
+      </c>
+      <c r="C82" t="s">
+        <v>391</v>
+      </c>
+      <c r="D82" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>85</v>
+      </c>
+      <c r="B83" t="s">
+        <v>239</v>
+      </c>
+      <c r="C83" t="s">
+        <v>392</v>
+      </c>
+      <c r="D83" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>86</v>
+      </c>
+      <c r="B84" t="s">
+        <v>240</v>
+      </c>
+      <c r="C84" t="s">
+        <v>393</v>
+      </c>
+      <c r="D84" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>87</v>
+      </c>
+      <c r="B85" t="s">
+        <v>241</v>
+      </c>
+      <c r="C85" t="s">
+        <v>394</v>
+      </c>
+      <c r="D85" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>88</v>
+      </c>
+      <c r="B86" t="s">
+        <v>242</v>
+      </c>
+      <c r="C86" t="s">
+        <v>395</v>
+      </c>
+      <c r="D86" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>89</v>
+      </c>
+      <c r="B87" t="s">
+        <v>243</v>
+      </c>
+      <c r="C87" t="s">
+        <v>396</v>
+      </c>
+      <c r="D87" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>90</v>
+      </c>
+      <c r="B88" t="s">
+        <v>244</v>
+      </c>
+      <c r="C88" t="s">
+        <v>397</v>
+      </c>
+      <c r="D88" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>91</v>
+      </c>
+      <c r="B89" t="s">
+        <v>245</v>
+      </c>
+      <c r="C89" t="s">
+        <v>398</v>
+      </c>
+      <c r="D89" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>92</v>
+      </c>
+      <c r="B90" t="s">
+        <v>246</v>
+      </c>
+      <c r="C90" t="s">
+        <v>399</v>
+      </c>
+      <c r="D90" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>93</v>
+      </c>
+      <c r="B91" t="s">
+        <v>247</v>
+      </c>
+      <c r="C91" t="s">
+        <v>400</v>
+      </c>
+      <c r="D91" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>94</v>
+      </c>
+      <c r="B92" t="s">
+        <v>248</v>
+      </c>
+      <c r="C92" t="s">
+        <v>401</v>
+      </c>
+      <c r="D92" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>95</v>
+      </c>
+      <c r="B93" t="s">
+        <v>249</v>
+      </c>
+      <c r="C93" t="s">
+        <v>402</v>
+      </c>
+      <c r="D93" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>96</v>
+      </c>
+      <c r="B94" t="s">
+        <v>250</v>
+      </c>
+      <c r="C94" t="s">
+        <v>403</v>
+      </c>
+      <c r="D94" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>97</v>
+      </c>
+      <c r="B95" t="s">
+        <v>251</v>
+      </c>
+      <c r="C95" t="s">
+        <v>404</v>
+      </c>
+      <c r="D95" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>98</v>
+      </c>
+      <c r="B96" t="s">
+        <v>252</v>
+      </c>
+      <c r="C96" t="s">
+        <v>405</v>
+      </c>
+      <c r="D96" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>99</v>
+      </c>
+      <c r="B97" t="s">
+        <v>253</v>
+      </c>
+      <c r="C97" t="s">
+        <v>406</v>
+      </c>
+      <c r="D97" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>100</v>
+      </c>
+      <c r="B98" t="s">
+        <v>178</v>
+      </c>
+      <c r="C98" t="s">
+        <v>331</v>
+      </c>
+      <c r="D98" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>101</v>
+      </c>
+      <c r="B99" t="s">
+        <v>254</v>
+      </c>
+      <c r="C99" t="s">
+        <v>407</v>
+      </c>
+      <c r="D99" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>102</v>
+      </c>
+      <c r="B100" t="s">
+        <v>255</v>
+      </c>
+      <c r="C100" t="s">
+        <v>408</v>
+      </c>
+      <c r="D100" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>103</v>
+      </c>
+      <c r="B101" t="s">
+        <v>256</v>
+      </c>
+      <c r="C101" t="s">
+        <v>409</v>
+      </c>
+      <c r="D101" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>104</v>
+      </c>
+      <c r="B102" t="s">
+        <v>257</v>
+      </c>
+      <c r="C102" t="s">
+        <v>410</v>
+      </c>
+      <c r="D102" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>105</v>
+      </c>
+      <c r="B103" t="s">
+        <v>258</v>
+      </c>
+      <c r="C103" t="s">
+        <v>411</v>
+      </c>
+      <c r="D103" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>106</v>
+      </c>
+      <c r="B104" t="s">
+        <v>259</v>
+      </c>
+      <c r="C104" t="s">
+        <v>412</v>
+      </c>
+      <c r="D104" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>107</v>
+      </c>
+      <c r="B105" t="s">
+        <v>260</v>
+      </c>
+      <c r="C105" t="s">
+        <v>413</v>
+      </c>
+      <c r="D105" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>108</v>
+      </c>
+      <c r="B106" t="s">
+        <v>261</v>
+      </c>
+      <c r="C106" t="s">
+        <v>414</v>
+      </c>
+      <c r="D106" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>109</v>
+      </c>
+      <c r="B107" t="s">
+        <v>262</v>
+      </c>
+      <c r="C107" t="s">
+        <v>415</v>
+      </c>
+      <c r="D107" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>110</v>
+      </c>
+      <c r="B108" t="s">
+        <v>263</v>
+      </c>
+      <c r="C108" t="s">
+        <v>416</v>
+      </c>
+      <c r="D108" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>111</v>
+      </c>
+      <c r="B109" t="s">
+        <v>264</v>
+      </c>
+      <c r="C109" t="s">
+        <v>417</v>
+      </c>
+      <c r="D109" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>112</v>
+      </c>
+      <c r="B110" t="s">
+        <v>265</v>
+      </c>
+      <c r="C110" t="s">
+        <v>418</v>
+      </c>
+      <c r="D110" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>113</v>
+      </c>
+      <c r="B111" t="s">
+        <v>266</v>
+      </c>
+      <c r="C111" t="s">
+        <v>419</v>
+      </c>
+      <c r="D111" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>114</v>
+      </c>
+      <c r="B112" t="s">
+        <v>267</v>
+      </c>
+      <c r="C112" t="s">
+        <v>420</v>
+      </c>
+      <c r="D112" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>115</v>
+      </c>
+      <c r="B113" t="s">
+        <v>268</v>
+      </c>
+      <c r="C113" t="s">
+        <v>421</v>
+      </c>
+      <c r="D113" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>116</v>
+      </c>
+      <c r="B114" t="s">
+        <v>269</v>
+      </c>
+      <c r="C114" t="s">
+        <v>422</v>
+      </c>
+      <c r="D114" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>24</v>
+      </c>
+      <c r="B115" t="s">
+        <v>178</v>
+      </c>
+      <c r="C115" t="s">
+        <v>331</v>
+      </c>
+      <c r="D115" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>117</v>
+      </c>
+      <c r="B116" t="s">
+        <v>270</v>
+      </c>
+      <c r="C116" t="s">
+        <v>423</v>
+      </c>
+      <c r="D116" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>118</v>
+      </c>
+      <c r="B117" t="s">
+        <v>271</v>
+      </c>
+      <c r="C117" t="s">
+        <v>424</v>
+      </c>
+      <c r="D117" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>119</v>
+      </c>
+      <c r="B118" t="s">
+        <v>272</v>
+      </c>
+      <c r="C118" t="s">
+        <v>425</v>
+      </c>
+      <c r="D118" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>120</v>
+      </c>
+      <c r="B119" t="s">
+        <v>273</v>
+      </c>
+      <c r="C119" t="s">
+        <v>426</v>
+      </c>
+      <c r="D119" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>121</v>
+      </c>
+      <c r="B120" t="s">
+        <v>274</v>
+      </c>
+      <c r="C120" t="s">
+        <v>427</v>
+      </c>
+      <c r="D120" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>122</v>
+      </c>
+      <c r="B121" t="s">
+        <v>275</v>
+      </c>
+      <c r="C121" t="s">
+        <v>428</v>
+      </c>
+      <c r="D121" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>123</v>
+      </c>
+      <c r="B122" t="s">
+        <v>276</v>
+      </c>
+      <c r="C122" t="s">
+        <v>429</v>
+      </c>
+      <c r="D122" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
+        <v>124</v>
+      </c>
+      <c r="B123" t="s">
+        <v>277</v>
+      </c>
+      <c r="C123" t="s">
+        <v>430</v>
+      </c>
+      <c r="D123" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>125</v>
+      </c>
+      <c r="B124" t="s">
+        <v>278</v>
+      </c>
+      <c r="C124" t="s">
+        <v>431</v>
+      </c>
+      <c r="D124" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>126</v>
+      </c>
+      <c r="B125" t="s">
+        <v>279</v>
+      </c>
+      <c r="C125" t="s">
+        <v>432</v>
+      </c>
+      <c r="D125" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>127</v>
+      </c>
+      <c r="B126" t="s">
+        <v>280</v>
+      </c>
+      <c r="C126" t="s">
+        <v>433</v>
+      </c>
+      <c r="D126" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
+        <v>128</v>
+      </c>
+      <c r="B127" t="s">
+        <v>281</v>
+      </c>
+      <c r="C127" t="s">
+        <v>434</v>
+      </c>
+      <c r="D127" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
+        <v>129</v>
+      </c>
+      <c r="B128" t="s">
+        <v>282</v>
+      </c>
+      <c r="C128" t="s">
+        <v>435</v>
+      </c>
+      <c r="D128" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
+        <v>130</v>
+      </c>
+      <c r="B129" t="s">
+        <v>283</v>
+      </c>
+      <c r="C129" t="s">
+        <v>436</v>
+      </c>
+      <c r="D129" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
+        <v>131</v>
+      </c>
+      <c r="B130" t="s">
+        <v>284</v>
+      </c>
+      <c r="C130" t="s">
+        <v>437</v>
+      </c>
+      <c r="D130" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
+        <v>132</v>
+      </c>
+      <c r="B131" t="s">
+        <v>285</v>
+      </c>
+      <c r="C131" t="s">
+        <v>438</v>
+      </c>
+      <c r="D131" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>133</v>
+      </c>
+      <c r="B132" t="s">
+        <v>286</v>
+      </c>
+      <c r="C132" t="s">
+        <v>439</v>
+      </c>
+      <c r="D132" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
+        <v>134</v>
+      </c>
+      <c r="B133" t="s">
+        <v>287</v>
+      </c>
+      <c r="C133" t="s">
+        <v>440</v>
+      </c>
+      <c r="D133" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
+        <v>135</v>
+      </c>
+      <c r="B134" t="s">
+        <v>288</v>
+      </c>
+      <c r="C134" t="s">
+        <v>441</v>
+      </c>
+      <c r="D134" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
+        <v>136</v>
+      </c>
+      <c r="B135" t="s">
+        <v>289</v>
+      </c>
+      <c r="C135" t="s">
+        <v>442</v>
+      </c>
+      <c r="D135" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
+        <v>137</v>
+      </c>
+      <c r="B136" t="s">
+        <v>290</v>
+      </c>
+      <c r="C136" t="s">
+        <v>443</v>
+      </c>
+      <c r="D136" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" t="s">
+        <v>138</v>
+      </c>
+      <c r="B137" t="s">
+        <v>291</v>
+      </c>
+      <c r="C137" t="s">
+        <v>444</v>
+      </c>
+      <c r="D137" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" t="s">
+        <v>139</v>
+      </c>
+      <c r="B138" t="s">
+        <v>292</v>
+      </c>
+      <c r="C138" t="s">
+        <v>445</v>
+      </c>
+      <c r="D138" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" t="s">
+        <v>140</v>
+      </c>
+      <c r="B139" t="s">
+        <v>293</v>
+      </c>
+      <c r="C139" t="s">
+        <v>446</v>
+      </c>
+      <c r="D139" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" t="s">
+        <v>141</v>
+      </c>
+      <c r="B140" t="s">
+        <v>294</v>
+      </c>
+      <c r="C140" t="s">
+        <v>447</v>
+      </c>
+      <c r="D140" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" t="s">
+        <v>142</v>
+      </c>
+      <c r="B141" t="s">
+        <v>295</v>
+      </c>
+      <c r="C141" t="s">
+        <v>448</v>
+      </c>
+      <c r="D141" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" t="s">
+        <v>143</v>
+      </c>
+      <c r="B142" t="s">
+        <v>296</v>
+      </c>
+      <c r="C142" t="s">
+        <v>449</v>
+      </c>
+      <c r="D142" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" t="s">
+        <v>144</v>
+      </c>
+      <c r="B143" t="s">
+        <v>297</v>
+      </c>
+      <c r="C143" t="s">
+        <v>450</v>
+      </c>
+      <c r="D143" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" t="s">
+        <v>145</v>
+      </c>
+      <c r="B144" t="s">
+        <v>298</v>
+      </c>
+      <c r="C144" t="s">
+        <v>451</v>
+      </c>
+      <c r="D144" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" t="s">
+        <v>146</v>
+      </c>
+      <c r="B145" t="s">
+        <v>299</v>
+      </c>
+      <c r="C145" t="s">
+        <v>452</v>
+      </c>
+      <c r="D145" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" t="s">
+        <v>147</v>
+      </c>
+      <c r="B146" t="s">
+        <v>300</v>
+      </c>
+      <c r="C146" t="s">
+        <v>453</v>
+      </c>
+      <c r="D146" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" t="s">
+        <v>148</v>
+      </c>
+      <c r="B147" t="s">
+        <v>301</v>
+      </c>
+      <c r="C147" t="s">
+        <v>454</v>
+      </c>
+      <c r="D147" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" t="s">
+        <v>149</v>
+      </c>
+      <c r="B148" t="s">
+        <v>302</v>
+      </c>
+      <c r="C148" t="s">
+        <v>455</v>
+      </c>
+      <c r="D148" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" t="s">
+        <v>150</v>
+      </c>
+      <c r="B149" t="s">
+        <v>303</v>
+      </c>
+      <c r="C149" t="s">
+        <v>456</v>
+      </c>
+      <c r="D149" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" t="s">
+        <v>151</v>
+      </c>
+      <c r="B150" t="s">
+        <v>304</v>
+      </c>
+      <c r="C150" t="s">
+        <v>457</v>
+      </c>
+      <c r="D150" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" t="s">
+        <v>152</v>
+      </c>
+      <c r="B151" t="s">
+        <v>305</v>
+      </c>
+      <c r="C151" t="s">
+        <v>458</v>
+      </c>
+      <c r="D151" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" t="s">
+        <v>153</v>
+      </c>
+      <c r="B152" t="s">
+        <v>306</v>
+      </c>
+      <c r="C152" t="s">
+        <v>459</v>
+      </c>
+      <c r="D152" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" t="s">
+        <v>154</v>
+      </c>
+      <c r="B153" t="s">
+        <v>307</v>
+      </c>
+      <c r="C153" t="s">
+        <v>460</v>
+      </c>
+      <c r="D153" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" t="s">
+        <v>155</v>
+      </c>
+      <c r="B154" t="s">
+        <v>308</v>
+      </c>
+      <c r="C154" t="s">
+        <v>461</v>
+      </c>
+      <c r="D154" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" t="s">
+        <v>156</v>
+      </c>
+      <c r="B155" t="s">
+        <v>309</v>
+      </c>
+      <c r="C155" t="s">
+        <v>462</v>
+      </c>
+      <c r="D155" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" t="s">
         <v>157</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B156" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C3" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C4" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>160</v>
-      </c>
-      <c r="C5" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>161</v>
-      </c>
-      <c r="C6" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>162</v>
-      </c>
-      <c r="C7" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>163</v>
-      </c>
-      <c r="C8" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>164</v>
-      </c>
-      <c r="C9" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>165</v>
-      </c>
-      <c r="C10" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>166</v>
-      </c>
-      <c r="C11" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>167</v>
-      </c>
-      <c r="C12" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>168</v>
-      </c>
-      <c r="C13" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" t="s">
-        <v>169</v>
-      </c>
-      <c r="C14" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" t="s">
-        <v>170</v>
-      </c>
-      <c r="C15" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" t="s">
-        <v>171</v>
-      </c>
-      <c r="C16" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" t="s">
-        <v>172</v>
-      </c>
-      <c r="C17" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s">
-        <v>173</v>
-      </c>
-      <c r="C18" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>174</v>
-      </c>
-      <c r="C19" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" t="s">
-        <v>175</v>
-      </c>
-      <c r="C20" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" t="s">
-        <v>176</v>
-      </c>
-      <c r="C21" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>177</v>
-      </c>
-      <c r="C22" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>178</v>
-      </c>
-      <c r="C23" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" t="s">
-        <v>179</v>
-      </c>
-      <c r="C24" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" t="s">
-        <v>180</v>
-      </c>
-      <c r="C25" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" t="s">
-        <v>181</v>
-      </c>
-      <c r="C26" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" t="s">
-        <v>182</v>
-      </c>
-      <c r="C27" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" t="s">
-        <v>183</v>
-      </c>
-      <c r="C28" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" t="s">
-        <v>184</v>
-      </c>
-      <c r="C29" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" t="s">
-        <v>185</v>
-      </c>
-      <c r="C30" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" t="s">
-        <v>186</v>
-      </c>
-      <c r="C31" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" t="s">
-        <v>187</v>
-      </c>
-      <c r="C32" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" t="s">
-        <v>188</v>
-      </c>
-      <c r="C33" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" t="s">
-        <v>189</v>
-      </c>
-      <c r="C34" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" t="s">
-        <v>190</v>
-      </c>
-      <c r="C35" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" t="s">
-        <v>191</v>
-      </c>
-      <c r="C36" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" t="s">
-        <v>192</v>
-      </c>
-      <c r="C37" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" t="s">
-        <v>193</v>
-      </c>
-      <c r="C38" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" t="s">
-        <v>194</v>
-      </c>
-      <c r="C39" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" t="s">
-        <v>195</v>
-      </c>
-      <c r="C40" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" t="s">
-        <v>196</v>
-      </c>
-      <c r="C41" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42" t="s">
-        <v>197</v>
-      </c>
-      <c r="C42" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43" t="s">
-        <v>198</v>
-      </c>
-      <c r="C43" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
-        <v>45</v>
-      </c>
-      <c r="B44" t="s">
-        <v>199</v>
-      </c>
-      <c r="C44" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
-        <v>46</v>
-      </c>
-      <c r="B45" t="s">
-        <v>200</v>
-      </c>
-      <c r="C45" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
-        <v>47</v>
-      </c>
-      <c r="B46" t="s">
-        <v>201</v>
-      </c>
-      <c r="C46" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
-        <v>48</v>
-      </c>
-      <c r="B47" t="s">
-        <v>202</v>
-      </c>
-      <c r="C47" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="s">
-        <v>49</v>
-      </c>
-      <c r="B48" t="s">
-        <v>203</v>
-      </c>
-      <c r="C48" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="s">
-        <v>50</v>
-      </c>
-      <c r="B49" t="s">
-        <v>204</v>
-      </c>
-      <c r="C49" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="s">
-        <v>51</v>
-      </c>
-      <c r="B50" t="s">
-        <v>205</v>
-      </c>
-      <c r="C50" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="s">
-        <v>52</v>
-      </c>
-      <c r="B51" t="s">
-        <v>206</v>
-      </c>
-      <c r="C51" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="s">
-        <v>53</v>
-      </c>
-      <c r="B52" t="s">
-        <v>207</v>
-      </c>
-      <c r="C52" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="s">
-        <v>54</v>
-      </c>
-      <c r="B53" t="s">
-        <v>208</v>
-      </c>
-      <c r="C53" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="s">
-        <v>55</v>
-      </c>
-      <c r="B54" t="s">
-        <v>209</v>
-      </c>
-      <c r="C54" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="s">
-        <v>56</v>
-      </c>
-      <c r="B55" t="s">
-        <v>210</v>
-      </c>
-      <c r="C55" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="s">
-        <v>57</v>
-      </c>
-      <c r="B56" t="s">
-        <v>211</v>
-      </c>
-      <c r="C56" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="s">
-        <v>58</v>
-      </c>
-      <c r="B57" t="s">
-        <v>212</v>
-      </c>
-      <c r="C57" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="s">
-        <v>59</v>
-      </c>
-      <c r="B58" t="s">
-        <v>213</v>
-      </c>
-      <c r="C58" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" t="s">
-        <v>60</v>
-      </c>
-      <c r="B59" t="s">
-        <v>214</v>
-      </c>
-      <c r="C59" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" t="s">
-        <v>61</v>
-      </c>
-      <c r="B60" t="s">
-        <v>215</v>
-      </c>
-      <c r="C60" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="s">
-        <v>62</v>
-      </c>
-      <c r="B61" t="s">
-        <v>216</v>
-      </c>
-      <c r="C61" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="s">
-        <v>63</v>
-      </c>
-      <c r="B62" t="s">
-        <v>217</v>
-      </c>
-      <c r="C62" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" t="s">
-        <v>64</v>
-      </c>
-      <c r="B63" t="s">
-        <v>218</v>
-      </c>
-      <c r="C63" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="s">
-        <v>65</v>
-      </c>
-      <c r="B64" t="s">
-        <v>219</v>
-      </c>
-      <c r="C64" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="s">
-        <v>66</v>
-      </c>
-      <c r="B65" t="s">
-        <v>220</v>
-      </c>
-      <c r="C65" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" t="s">
-        <v>67</v>
-      </c>
-      <c r="B66" t="s">
-        <v>221</v>
-      </c>
-      <c r="C66" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="s">
-        <v>68</v>
-      </c>
-      <c r="B67" t="s">
-        <v>222</v>
-      </c>
-      <c r="C67" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="s">
-        <v>69</v>
-      </c>
-      <c r="B68" t="s">
-        <v>223</v>
-      </c>
-      <c r="C68" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" t="s">
-        <v>70</v>
-      </c>
-      <c r="B69" t="s">
-        <v>224</v>
-      </c>
-      <c r="C69" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="s">
-        <v>71</v>
-      </c>
-      <c r="B70" t="s">
-        <v>225</v>
-      </c>
-      <c r="C70" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="s">
-        <v>72</v>
-      </c>
-      <c r="B71" t="s">
-        <v>226</v>
-      </c>
-      <c r="C71" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" t="s">
-        <v>73</v>
-      </c>
-      <c r="B72" t="s">
-        <v>227</v>
-      </c>
-      <c r="C72" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" t="s">
-        <v>74</v>
-      </c>
-      <c r="B73" t="s">
-        <v>228</v>
-      </c>
-      <c r="C73" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" t="s">
-        <v>75</v>
-      </c>
-      <c r="B74" t="s">
-        <v>229</v>
-      </c>
-      <c r="C74" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" t="s">
-        <v>76</v>
-      </c>
-      <c r="B75" t="s">
-        <v>230</v>
-      </c>
-      <c r="C75" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" t="s">
-        <v>77</v>
-      </c>
-      <c r="B76" t="s">
-        <v>231</v>
-      </c>
-      <c r="C76" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" t="s">
-        <v>78</v>
-      </c>
-      <c r="B77" t="s">
-        <v>232</v>
-      </c>
-      <c r="C77" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" t="s">
-        <v>79</v>
-      </c>
-      <c r="B78" t="s">
-        <v>233</v>
-      </c>
-      <c r="C78" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" t="s">
-        <v>80</v>
-      </c>
-      <c r="B79" t="s">
-        <v>234</v>
-      </c>
-      <c r="C79" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" t="s">
-        <v>81</v>
-      </c>
-      <c r="B80" t="s">
-        <v>235</v>
-      </c>
-      <c r="C80" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" t="s">
-        <v>82</v>
-      </c>
-      <c r="B81" t="s">
-        <v>236</v>
-      </c>
-      <c r="C81" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" t="s">
-        <v>83</v>
-      </c>
-      <c r="B82" t="s">
-        <v>237</v>
-      </c>
-      <c r="C82" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" t="s">
-        <v>84</v>
-      </c>
-      <c r="B83" t="s">
-        <v>238</v>
-      </c>
-      <c r="C83" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" t="s">
-        <v>85</v>
-      </c>
-      <c r="B84" t="s">
-        <v>239</v>
-      </c>
-      <c r="C84" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" t="s">
-        <v>86</v>
-      </c>
-      <c r="B85" t="s">
-        <v>240</v>
-      </c>
-      <c r="C85" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" t="s">
-        <v>87</v>
-      </c>
-      <c r="B86" t="s">
-        <v>241</v>
-      </c>
-      <c r="C86" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" t="s">
-        <v>88</v>
-      </c>
-      <c r="B87" t="s">
-        <v>242</v>
-      </c>
-      <c r="C87" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" t="s">
-        <v>89</v>
-      </c>
-      <c r="B88" t="s">
-        <v>243</v>
-      </c>
-      <c r="C88" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" t="s">
-        <v>90</v>
-      </c>
-      <c r="B89" t="s">
-        <v>244</v>
-      </c>
-      <c r="C89" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" t="s">
-        <v>91</v>
-      </c>
-      <c r="B90" t="s">
-        <v>245</v>
-      </c>
-      <c r="C90" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" t="s">
-        <v>92</v>
-      </c>
-      <c r="B91" t="s">
-        <v>246</v>
-      </c>
-      <c r="C91" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" t="s">
-        <v>93</v>
-      </c>
-      <c r="B92" t="s">
-        <v>247</v>
-      </c>
-      <c r="C92" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" t="s">
-        <v>94</v>
-      </c>
-      <c r="B93" t="s">
-        <v>248</v>
-      </c>
-      <c r="C93" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" t="s">
-        <v>95</v>
-      </c>
-      <c r="B94" t="s">
-        <v>249</v>
-      </c>
-      <c r="C94" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" t="s">
-        <v>96</v>
-      </c>
-      <c r="B95" t="s">
-        <v>250</v>
-      </c>
-      <c r="C95" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" t="s">
-        <v>97</v>
-      </c>
-      <c r="B96" t="s">
-        <v>251</v>
-      </c>
-      <c r="C96" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" t="s">
-        <v>98</v>
-      </c>
-      <c r="B97" t="s">
-        <v>252</v>
-      </c>
-      <c r="C97" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" t="s">
-        <v>99</v>
-      </c>
-      <c r="B98" t="s">
-        <v>177</v>
-      </c>
-      <c r="C98" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" t="s">
-        <v>100</v>
-      </c>
-      <c r="B99" t="s">
-        <v>253</v>
-      </c>
-      <c r="C99" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" t="s">
-        <v>101</v>
-      </c>
-      <c r="B100" t="s">
-        <v>254</v>
-      </c>
-      <c r="C100" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" t="s">
-        <v>102</v>
-      </c>
-      <c r="B101" t="s">
-        <v>255</v>
-      </c>
-      <c r="C101" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" t="s">
-        <v>103</v>
-      </c>
-      <c r="B102" t="s">
-        <v>256</v>
-      </c>
-      <c r="C102" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" t="s">
-        <v>104</v>
-      </c>
-      <c r="B103" t="s">
-        <v>257</v>
-      </c>
-      <c r="C103" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" t="s">
-        <v>105</v>
-      </c>
-      <c r="B104" t="s">
-        <v>258</v>
-      </c>
-      <c r="C104" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" t="s">
-        <v>106</v>
-      </c>
-      <c r="B105" t="s">
-        <v>259</v>
-      </c>
-      <c r="C105" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" t="s">
-        <v>107</v>
-      </c>
-      <c r="B106" t="s">
-        <v>260</v>
-      </c>
-      <c r="C106" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" t="s">
-        <v>108</v>
-      </c>
-      <c r="B107" t="s">
-        <v>261</v>
-      </c>
-      <c r="C107" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" t="s">
-        <v>109</v>
-      </c>
-      <c r="B108" t="s">
-        <v>262</v>
-      </c>
-      <c r="C108" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" t="s">
-        <v>110</v>
-      </c>
-      <c r="B109" t="s">
-        <v>263</v>
-      </c>
-      <c r="C109" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" t="s">
-        <v>111</v>
-      </c>
-      <c r="B110" t="s">
-        <v>264</v>
-      </c>
-      <c r="C110" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" t="s">
-        <v>112</v>
-      </c>
-      <c r="B111" t="s">
-        <v>265</v>
-      </c>
-      <c r="C111" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" t="s">
-        <v>113</v>
-      </c>
-      <c r="B112" t="s">
-        <v>266</v>
-      </c>
-      <c r="C112" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" t="s">
-        <v>114</v>
-      </c>
-      <c r="B113" t="s">
-        <v>267</v>
-      </c>
-      <c r="C113" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" t="s">
-        <v>115</v>
-      </c>
-      <c r="B114" t="s">
-        <v>268</v>
-      </c>
-      <c r="C114" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" t="s">
-        <v>23</v>
-      </c>
-      <c r="B115" t="s">
-        <v>177</v>
-      </c>
-      <c r="C115" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" t="s">
-        <v>116</v>
-      </c>
-      <c r="B116" t="s">
-        <v>269</v>
-      </c>
-      <c r="C116" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" t="s">
-        <v>117</v>
-      </c>
-      <c r="B117" t="s">
-        <v>270</v>
-      </c>
-      <c r="C117" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" t="s">
-        <v>118</v>
-      </c>
-      <c r="B118" t="s">
-        <v>271</v>
-      </c>
-      <c r="C118" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" t="s">
-        <v>119</v>
-      </c>
-      <c r="B119" t="s">
-        <v>272</v>
-      </c>
-      <c r="C119" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" t="s">
-        <v>120</v>
-      </c>
-      <c r="B120" t="s">
-        <v>273</v>
-      </c>
-      <c r="C120" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" t="s">
-        <v>121</v>
-      </c>
-      <c r="B121" t="s">
-        <v>274</v>
-      </c>
-      <c r="C121" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" t="s">
-        <v>122</v>
-      </c>
-      <c r="B122" t="s">
-        <v>275</v>
-      </c>
-      <c r="C122" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" t="s">
-        <v>123</v>
-      </c>
-      <c r="B123" t="s">
-        <v>276</v>
-      </c>
-      <c r="C123" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" t="s">
-        <v>124</v>
-      </c>
-      <c r="B124" t="s">
-        <v>277</v>
-      </c>
-      <c r="C124" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" t="s">
-        <v>125</v>
-      </c>
-      <c r="B125" t="s">
-        <v>278</v>
-      </c>
-      <c r="C125" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" t="s">
-        <v>126</v>
-      </c>
-      <c r="B126" t="s">
-        <v>279</v>
-      </c>
-      <c r="C126" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" t="s">
-        <v>127</v>
-      </c>
-      <c r="B127" t="s">
-        <v>280</v>
-      </c>
-      <c r="C127" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" t="s">
-        <v>128</v>
-      </c>
-      <c r="B128" t="s">
-        <v>281</v>
-      </c>
-      <c r="C128" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129" t="s">
-        <v>129</v>
-      </c>
-      <c r="B129" t="s">
-        <v>282</v>
-      </c>
-      <c r="C129" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" t="s">
-        <v>130</v>
-      </c>
-      <c r="B130" t="s">
-        <v>283</v>
-      </c>
-      <c r="C130" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
-      <c r="A131" t="s">
-        <v>131</v>
-      </c>
-      <c r="B131" t="s">
-        <v>284</v>
-      </c>
-      <c r="C131" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
-      <c r="A132" t="s">
-        <v>132</v>
-      </c>
-      <c r="B132" t="s">
-        <v>285</v>
-      </c>
-      <c r="C132" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="A133" t="s">
-        <v>133</v>
-      </c>
-      <c r="B133" t="s">
-        <v>286</v>
-      </c>
-      <c r="C133" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="A134" t="s">
-        <v>134</v>
-      </c>
-      <c r="B134" t="s">
-        <v>287</v>
-      </c>
-      <c r="C134" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="A135" t="s">
-        <v>135</v>
-      </c>
-      <c r="B135" t="s">
-        <v>288</v>
-      </c>
-      <c r="C135" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="A136" t="s">
-        <v>136</v>
-      </c>
-      <c r="B136" t="s">
-        <v>289</v>
-      </c>
-      <c r="C136" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
-      <c r="A137" t="s">
-        <v>137</v>
-      </c>
-      <c r="B137" t="s">
-        <v>290</v>
-      </c>
-      <c r="C137" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
-      <c r="A138" t="s">
-        <v>138</v>
-      </c>
-      <c r="B138" t="s">
-        <v>291</v>
-      </c>
-      <c r="C138" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
-      <c r="A139" t="s">
-        <v>139</v>
-      </c>
-      <c r="B139" t="s">
-        <v>292</v>
-      </c>
-      <c r="C139" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
-      <c r="A140" t="s">
-        <v>140</v>
-      </c>
-      <c r="B140" t="s">
-        <v>293</v>
-      </c>
-      <c r="C140" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
-      <c r="A141" t="s">
-        <v>141</v>
-      </c>
-      <c r="B141" t="s">
-        <v>294</v>
-      </c>
-      <c r="C141" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
-      <c r="A142" t="s">
-        <v>142</v>
-      </c>
-      <c r="B142" t="s">
-        <v>295</v>
-      </c>
-      <c r="C142" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
-      <c r="A143" t="s">
-        <v>143</v>
-      </c>
-      <c r="B143" t="s">
-        <v>296</v>
-      </c>
-      <c r="C143" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
-      <c r="A144" t="s">
-        <v>144</v>
-      </c>
-      <c r="B144" t="s">
-        <v>297</v>
-      </c>
-      <c r="C144" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
-      <c r="A145" t="s">
-        <v>145</v>
-      </c>
-      <c r="B145" t="s">
-        <v>298</v>
-      </c>
-      <c r="C145" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
-      <c r="A146" t="s">
-        <v>146</v>
-      </c>
-      <c r="B146" t="s">
-        <v>299</v>
-      </c>
-      <c r="C146" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3">
-      <c r="A147" t="s">
-        <v>147</v>
-      </c>
-      <c r="B147" t="s">
-        <v>300</v>
-      </c>
-      <c r="C147" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
-      <c r="A148" t="s">
-        <v>148</v>
-      </c>
-      <c r="B148" t="s">
-        <v>301</v>
-      </c>
-      <c r="C148" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
-      <c r="A149" t="s">
-        <v>149</v>
-      </c>
-      <c r="B149" t="s">
-        <v>302</v>
-      </c>
-      <c r="C149" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
-      <c r="A150" t="s">
-        <v>150</v>
-      </c>
-      <c r="B150" t="s">
-        <v>303</v>
-      </c>
-      <c r="C150" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
-      <c r="A151" t="s">
-        <v>151</v>
-      </c>
-      <c r="B151" t="s">
-        <v>304</v>
-      </c>
-      <c r="C151" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
-      <c r="A152" t="s">
-        <v>152</v>
-      </c>
-      <c r="B152" t="s">
-        <v>305</v>
-      </c>
-      <c r="C152" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
-      <c r="A153" t="s">
-        <v>153</v>
-      </c>
-      <c r="B153" t="s">
-        <v>306</v>
-      </c>
-      <c r="C153" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
-      <c r="A154" t="s">
-        <v>154</v>
-      </c>
-      <c r="B154" t="s">
-        <v>307</v>
-      </c>
-      <c r="C154" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3">
-      <c r="A155" t="s">
-        <v>155</v>
-      </c>
-      <c r="B155" t="s">
-        <v>308</v>
-      </c>
-      <c r="C155" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3">
-      <c r="A156" t="s">
-        <v>156</v>
-      </c>
-      <c r="B156" t="s">
-        <v>309</v>
-      </c>
       <c r="C156" t="s">
-        <v>462</v>
+        <v>463</v>
+      </c>
+      <c r="D156" t="s">
+        <v>616</v>
       </c>
     </row>
   </sheetData>
